--- a/AuswertungSchneidprogramm.xlsx
+++ b/AuswertungSchneidprogramm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\1school\MIDKWHATMODULEITIS\Multimedia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63793459-9D45-4BEF-82AB-FC243691A6DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA7AD71-297E-4C9F-ACFB-4834AC16C030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3320" yWindow="3320" windowWidth="13753" windowHeight="5373" xr2:uid="{CA612B1C-5FB4-4C74-A464-42D7DF4EE322}"/>
+    <workbookView xWindow="3300" yWindow="3300" windowWidth="19200" windowHeight="10180" xr2:uid="{CA612B1C-5FB4-4C74-A464-42D7DF4EE322}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -198,10 +198,10 @@
   </cellStyles>
   <dxfs count="2">
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -217,14 +217,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{47194875-7943-4E94-980B-E3632E22E70B}" name="Tabelle1" displayName="Tabelle1" ref="B3:I9" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{47194875-7943-4E94-980B-E3632E22E70B}" name="Tabelle1" displayName="Tabelle1" ref="B3:I9" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="B3:I9" xr:uid="{47194875-7943-4E94-980B-E3632E22E70B}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{29FD73A8-B8E9-4B50-9ADE-515C4FF84622}" name="Spalte1"/>
     <tableColumn id="2" xr3:uid="{0E6E2C7B-3920-4B0C-ACE3-E9F87715597B}" name="Spalte2"/>
     <tableColumn id="3" xr3:uid="{FEC05272-CD17-494F-A9EB-245B1EEC1197}" name="Spalte3"/>
     <tableColumn id="4" xr3:uid="{BE8AB485-5EC5-4EE5-A751-8618C61FABC2}" name="Spalte4"/>
-    <tableColumn id="5" xr3:uid="{C65246E0-3B34-469E-9BF8-02538DC1717D}" name="Spalte5" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{C65246E0-3B34-469E-9BF8-02538DC1717D}" name="Spalte5" dataDxfId="0"/>
     <tableColumn id="6" xr3:uid="{42A75F0B-AD94-4BC3-B502-ADA47DDBFF3A}" name="Spalte6"/>
     <tableColumn id="7" xr3:uid="{6CE652F4-30FD-4809-BB5D-DB1D74035B25}" name="Spalte7"/>
     <tableColumn id="8" xr3:uid="{E066AB62-FD29-434A-A146-0FD9FB6389A7}" name="Spalte8"/>
@@ -533,7 +533,7 @@
   <dimension ref="B2:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -752,26 +752,26 @@
         <v>7</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <f>(C9*10+D9*3+E9*4+F9*1+G9*2+H9*2+I9*4)/7</f>
-        <v>17</v>
+        <v>13.714285714285714</v>
       </c>
     </row>
   </sheetData>
